--- a/交流管理/项目日报/每日要做的事-夏金龙.xlsx
+++ b/交流管理/项目日报/每日要做的事-夏金龙.xlsx
@@ -82,19 +82,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习Jmeter做压力测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">底 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习JAVA基础，并编写每个例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">学习docker部署，Jenkins部署流程 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看thinkingJava到50页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,7 +489,7 @@
         <v>42997</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -510,14 +510,17 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.2</v>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/每日要做的事-夏金龙.xlsx
+++ b/交流管理/项目日报/每日要做的事-夏金龙.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>看thinkingJava到50页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对校比邻APP进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对校比邻后台进行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -510,7 +522,15 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" s="2"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -521,6 +541,20 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
